--- a/7GTPE/Stat-exercices/exo-all-7GTPE.xlsx
+++ b/7GTPE/Stat-exercices/exo-all-7GTPE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Région 1</t>
   </si>
@@ -33,30 +33,6 @@
   <si>
     <t xml:space="preserve">Région 4</t>
   </si>
-  <si>
-    <t xml:space="preserve">Moyenne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etendue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freq</t>
-  </si>
 </sst>
 </file>
 
@@ -65,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,11 +70,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -110,7 +81,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFB3B3B3"/>
+        <bgColor rgb="FFBCE4E5"/>
       </patternFill>
     </fill>
     <fill>
@@ -128,7 +99,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDB94D"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFCC79B"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,8 +122,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDAA2"/>
-        <bgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFCC79B"/>
+        <bgColor rgb="FFFDB94D"/>
       </patternFill>
     </fill>
   </fills>
@@ -268,12 +239,12 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFAA55A1"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -293,7 +264,7 @@
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFDAA2"/>
+      <rgbColor rgb="FFFCC79B"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFADD58A"/>
@@ -302,7 +273,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -315,942 +286,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.054528419737664"/>
-          <c:y val="0.0395160395160395"/>
-          <c:w val="0.779700187382886"/>
-          <c:h val="0.865911865911866"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="1631228"/>
-        <c:axId val="10760007"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1631228"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="10760007"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="10760007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1631228"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$23:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="37093576"/>
-        <c:axId val="84551514"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="37093576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84551514"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84551514"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37093576"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$23:$F$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="68737921"/>
-        <c:axId val="83146152"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="68737921"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83146152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83146152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68737921"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$23:$H$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="46129035"/>
-        <c:axId val="47708707"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="46129035"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="47708707"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="47708707"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="46129035"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="fr-FR" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>656640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8710920" y="715320"/>
-        <a:ext cx="5763240" cy="3242880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="9187200" y="4121280"/>
-        <a:ext cx="5763240" cy="3242880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="9023040" y="7551360"/>
-        <a:ext cx="5763240" cy="3242880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>24840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>98640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="14655240" y="763920"/>
-        <a:ext cx="5763240" cy="3242880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1259,7 +294,7 @@
   <dimension ref="A2:J100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="H90" activeCellId="0" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,60 +323,38 @@
       <c r="A4" s="6" t="n">
         <v>1250</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="7" t="n">
         <v>985</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="8" t="n">
         <v>986</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="9" t="n">
         <v>1253</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>1350</v>
       </c>
-      <c r="B5" s="11" t="n">
-        <f aca="false">AVERAGE(A4:A100)</f>
-        <v>1543.82474226804</v>
-      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="7" t="n">
         <v>1050</v>
       </c>
-      <c r="D5" s="11" t="n">
-        <f aca="false">AVERAGE(C4:C100)</f>
-        <v>1589.82474226804</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <f aca="false">AVERAGE(E4:E100)</f>
-        <v>2142.60824742268</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="9" t="n">
         <v>1354</v>
       </c>
-      <c r="H5" s="11" t="n">
-        <f aca="false">AVERAGE(G4:G100)</f>
-        <v>1430.90721649485</v>
-      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
@@ -1360,71 +373,42 @@
         <v>1455</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="J6" s="0" t="n">
-        <v>520</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="7" t="n">
         <v>1200</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="8" t="n">
         <v>1205</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="9" t="n">
         <v>1300</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1000</v>
-      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>1351</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <f aca="false">MODE(A4:A100)</f>
-        <v>1700</v>
-      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="7" t="n">
         <v>975</v>
       </c>
-      <c r="D8" s="11" t="n">
-        <f aca="false">MODE(C4:C100)</f>
-        <v>3200</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="8" t="n">
         <v>976</v>
       </c>
-      <c r="F8" s="11" t="n">
-        <f aca="false">MODE(E4:E100)</f>
-        <v>1051</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="9" t="n">
         <v>1352</v>
       </c>
-      <c r="H8" s="11" t="n">
-        <f aca="false">MODE(G4:G100)</f>
-        <v>3200</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1500</v>
-      </c>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -1439,70 +423,37 @@
       <c r="G9" s="9" t="n">
         <v>1458</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>2000</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="7" t="n">
         <v>1150</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="8" t="n">
         <v>981</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="9" t="n">
         <v>1400</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>2500</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>1250</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">MAX(A4:A100)-MIN(A4:A100)</f>
-        <v>8900</v>
-      </c>
       <c r="C11" s="7" t="n">
         <v>986</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">MAX(C4:C100)-MIN(C4:C100)</f>
-        <v>9330</v>
-      </c>
       <c r="E11" s="8" t="n">
         <v>3205</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">MAX(E4:E100)-MIN(E4:E100)</f>
-        <v>2876</v>
-      </c>
       <c r="G11" s="9" t="n">
         <v>1254</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">MAX(G4:G100)-MIN(G4:G100)</f>
-        <v>2685</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,70 +469,37 @@
       <c r="G12" s="9" t="n">
         <v>1358</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>3500</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>1450</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="7" t="n">
         <v>895</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="8" t="n">
         <v>3207</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="9" t="n">
         <v>1452</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>4000</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">MEDIAN(A4:A100)</f>
-        <v>1358</v>
-      </c>
       <c r="C14" s="7" t="n">
         <v>1205</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">MEDIAN(C4:C100)</f>
-        <v>986</v>
-      </c>
       <c r="E14" s="8" t="n">
         <v>3208</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">MEDIAN(E4:E100)</f>
-        <v>1600</v>
-      </c>
       <c r="G14" s="9" t="n">
         <v>1706</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">MEDIAN(G4:G100)</f>
-        <v>986</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>7000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,120 +515,73 @@
       <c r="G15" s="9" t="n">
         <v>986</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>9500</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>1451</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="7" t="n">
         <v>985</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="9" t="n">
         <v>950</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B17" s="12" t="n">
-        <f aca="false">MIN(A4:A100)</f>
-        <v>600</v>
-      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="7" t="n">
         <v>981</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <f aca="false">MIN(C4:C100)</f>
-        <v>520</v>
-      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="8" t="n">
         <v>3405</v>
       </c>
-      <c r="F17" s="12" t="n">
-        <f aca="false">MIN(E4:E100)</f>
-        <v>580</v>
-      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="9" t="n">
         <v>895</v>
       </c>
-      <c r="H17" s="12" t="n">
-        <f aca="false">MIN(G4:G100)</f>
-        <v>720</v>
-      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>600</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="7" t="n">
         <v>3200</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="9" t="n">
         <v>940</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>1250</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <f aca="false">MAX(A4:A100)</f>
-        <v>9500</v>
-      </c>
       <c r="C19" s="7" t="n">
         <v>3200</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">MAX(C4:C100)</f>
-        <v>9850</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>3456</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">MAX(E4:E100)</f>
-        <v>3456</v>
-      </c>
       <c r="G19" s="9" t="n">
         <v>976</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <f aca="false">MAX(G4:G100)</f>
-        <v>3405</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,9 +602,6 @@
       <c r="A21" s="6" t="n">
         <v>1450</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C21" s="7" t="n">
         <v>1050</v>
       </c>
@@ -1762,290 +630,154 @@
       <c r="A23" s="6" t="n">
         <v>1351</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false" t="array" ref="B23:B33">FREQUENCY(A4:A100,J6:J15)</f>
-        <v>0</v>
-      </c>
       <c r="C23" s="7" t="n">
         <v>1200</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <f aca="false" t="array" ref="D23:D33">FREQUENCY(C4:C100,J6:J15)</f>
-        <v>1</v>
-      </c>
       <c r="E23" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false" t="array" ref="F23:F33">FREQUENCY(E4:E100,J6:J15)</f>
-        <v>0</v>
-      </c>
       <c r="G23" s="9" t="n">
         <v>1200</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false" t="array" ref="H23:H33">FREQUENCY(G4:G100,J6:J15)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>1451</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="C24" s="7" t="n">
         <v>975</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>53</v>
-      </c>
       <c r="E24" s="8" t="n">
         <v>3207</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="G24" s="9" t="n">
         <v>1500</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>61</v>
-      </c>
       <c r="C25" s="7" t="n">
         <v>3200</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>23</v>
       </c>
       <c r="E25" s="8" t="n">
         <v>3208</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>34</v>
-      </c>
       <c r="G25" s="9" t="n">
         <v>1200</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>1253</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>23</v>
-      </c>
       <c r="C26" s="7" t="n">
         <v>999</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="E26" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="G26" s="9" t="n">
         <v>3206</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>1354</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C27" s="7" t="n">
         <v>986</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" s="9" t="n">
         <v>3300</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>1455</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C28" s="7" t="n">
         <v>1051</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>3405</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G28" s="9" t="n">
         <v>3405</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>1702</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C29" s="7" t="n">
         <v>895</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>12</v>
-      </c>
       <c r="E29" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>47</v>
-      </c>
       <c r="G29" s="9" t="n">
         <v>3200</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>1352</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C30" s="7" t="n">
         <v>978</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E30" s="8" t="n">
         <v>3456</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" s="9" t="n">
         <v>960</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>1458</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C31" s="7" t="n">
         <v>976</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E31" s="8" t="n">
         <v>1111</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" s="9" t="n">
         <v>985</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>1703</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="C32" s="7" t="n">
         <v>1111</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="E32" s="8" t="n">
         <v>687</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" s="9" t="n">
         <v>1050</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>1254</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C33" s="7" t="n">
         <v>981</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E33" s="8" t="n">
         <v>3205</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" s="9" t="n">
         <v>890</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +1000,7 @@
       <c r="E49" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G49" s="7" t="n">
+      <c r="G49" s="9" t="n">
         <v>1351</v>
       </c>
     </row>
@@ -2282,7 +1014,7 @@
       <c r="E50" s="8" t="n">
         <v>1052</v>
       </c>
-      <c r="G50" s="7" t="n">
+      <c r="G50" s="9" t="n">
         <v>1451</v>
       </c>
     </row>
@@ -2296,7 +1028,7 @@
       <c r="E51" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G51" s="7" t="n">
+      <c r="G51" s="9" t="n">
         <v>1700</v>
       </c>
     </row>
@@ -2310,7 +1042,7 @@
       <c r="E52" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G52" s="7" t="n">
+      <c r="G52" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2324,7 +1056,7 @@
       <c r="E53" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G53" s="7" t="n">
+      <c r="G53" s="9" t="n">
         <v>985</v>
       </c>
     </row>
@@ -2338,7 +1070,7 @@
       <c r="E54" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G54" s="7" t="n">
+      <c r="G54" s="9" t="n">
         <v>865</v>
       </c>
     </row>
@@ -2352,7 +1084,7 @@
       <c r="E55" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G55" s="7" t="n">
+      <c r="G55" s="9" t="n">
         <v>890</v>
       </c>
     </row>
@@ -2366,7 +1098,7 @@
       <c r="E56" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G56" s="7" t="n">
+      <c r="G56" s="9" t="n">
         <v>940</v>
       </c>
     </row>
@@ -2380,7 +1112,7 @@
       <c r="E57" s="8" t="n">
         <v>895</v>
       </c>
-      <c r="G57" s="7" t="n">
+      <c r="G57" s="9" t="n">
         <v>975</v>
       </c>
     </row>
@@ -2394,7 +1126,7 @@
       <c r="E58" s="8" t="n">
         <v>580</v>
       </c>
-      <c r="G58" s="7" t="n">
+      <c r="G58" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2408,7 +1140,7 @@
       <c r="E59" s="8" t="n">
         <v>586</v>
       </c>
-      <c r="G59" s="7" t="n">
+      <c r="G59" s="9" t="n">
         <v>986</v>
       </c>
     </row>
@@ -2422,7 +1154,7 @@
       <c r="E60" s="8" t="n">
         <v>1111</v>
       </c>
-      <c r="G60" s="7" t="n">
+      <c r="G60" s="9" t="n">
         <v>986</v>
       </c>
     </row>
@@ -2436,7 +1168,7 @@
       <c r="E61" s="8" t="n">
         <v>981</v>
       </c>
-      <c r="G61" s="7" t="n">
+      <c r="G61" s="9" t="n">
         <v>978</v>
       </c>
     </row>
@@ -2450,7 +1182,7 @@
       <c r="E62" s="8" t="n">
         <v>3205</v>
       </c>
-      <c r="G62" s="7" t="n">
+      <c r="G62" s="9" t="n">
         <v>895</v>
       </c>
     </row>
@@ -2464,7 +1196,7 @@
       <c r="E63" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="G63" s="7" t="n">
+      <c r="G63" s="9" t="n">
         <v>840</v>
       </c>
     </row>
@@ -2478,7 +1210,7 @@
       <c r="E64" s="8" t="n">
         <v>3207</v>
       </c>
-      <c r="G64" s="7" t="n">
+      <c r="G64" s="9" t="n">
         <v>976</v>
       </c>
     </row>
@@ -2492,7 +1224,7 @@
       <c r="E65" s="8" t="n">
         <v>3208</v>
       </c>
-      <c r="G65" s="7" t="n">
+      <c r="G65" s="9" t="n">
         <v>720</v>
       </c>
     </row>
@@ -2506,7 +1238,7 @@
       <c r="E66" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="G66" s="7" t="n">
+      <c r="G66" s="9" t="n">
         <v>981</v>
       </c>
     </row>
@@ -2520,7 +1252,7 @@
       <c r="E67" s="8" t="n">
         <v>3207</v>
       </c>
-      <c r="G67" s="7" t="n">
+      <c r="G67" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2534,7 +1266,7 @@
       <c r="E68" s="8" t="n">
         <v>3208</v>
       </c>
-      <c r="G68" s="7" t="n">
+      <c r="G68" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2548,7 +1280,7 @@
       <c r="E69" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="G69" s="7" t="n">
+      <c r="G69" s="9" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -2562,7 +1294,7 @@
       <c r="E70" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="G70" s="7" t="n">
+      <c r="G70" s="9" t="n">
         <v>785</v>
       </c>
     </row>
@@ -2576,7 +1308,7 @@
       <c r="E71" s="8" t="n">
         <v>3405</v>
       </c>
-      <c r="G71" s="7" t="n">
+      <c r="G71" s="9" t="n">
         <v>890</v>
       </c>
     </row>
@@ -2590,7 +1322,7 @@
       <c r="E72" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="G72" s="7" t="n">
+      <c r="G72" s="9" t="n">
         <v>985</v>
       </c>
     </row>
@@ -2604,7 +1336,7 @@
       <c r="E73" s="8" t="n">
         <v>3456</v>
       </c>
-      <c r="G73" s="7" t="n">
+      <c r="G73" s="9" t="n">
         <v>975</v>
       </c>
     </row>
@@ -2618,7 +1350,7 @@
       <c r="E74" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G74" s="7" t="n">
+      <c r="G74" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2632,7 +1364,7 @@
       <c r="E75" s="8" t="n">
         <v>1078</v>
       </c>
-      <c r="G75" s="7" t="n">
+      <c r="G75" s="9" t="n">
         <v>745</v>
       </c>
     </row>
@@ -2646,7 +1378,7 @@
       <c r="E76" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="G76" s="7" t="n">
+      <c r="G76" s="9" t="n">
         <v>986</v>
       </c>
     </row>
@@ -2660,7 +1392,7 @@
       <c r="E77" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="G77" s="7" t="n">
+      <c r="G77" s="9" t="n">
         <v>852</v>
       </c>
     </row>
@@ -2674,7 +1406,7 @@
       <c r="E78" s="8" t="n">
         <v>3450</v>
       </c>
-      <c r="G78" s="7" t="n">
+      <c r="G78" s="9" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -2688,7 +1420,7 @@
       <c r="E79" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G79" s="7" t="n">
+      <c r="G79" s="9" t="n">
         <v>784</v>
       </c>
     </row>
@@ -2702,7 +1434,7 @@
       <c r="E80" s="8" t="n">
         <v>3201</v>
       </c>
-      <c r="G80" s="7" t="n">
+      <c r="G80" s="9" t="n">
         <v>976</v>
       </c>
     </row>
@@ -2716,7 +1448,7 @@
       <c r="E81" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G81" s="7" t="n">
+      <c r="G81" s="9" t="n">
         <v>962</v>
       </c>
     </row>
@@ -2730,7 +1462,7 @@
       <c r="E82" s="8" t="n">
         <v>1052</v>
       </c>
-      <c r="G82" s="7" t="n">
+      <c r="G82" s="9" t="n">
         <v>981</v>
       </c>
     </row>
@@ -2744,7 +1476,7 @@
       <c r="E83" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G83" s="7" t="n">
+      <c r="G83" s="9" t="n">
         <v>895</v>
       </c>
     </row>
@@ -2758,7 +1490,7 @@
       <c r="E84" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G84" s="7" t="n">
+      <c r="G84" s="9" t="n">
         <v>1205</v>
       </c>
     </row>
@@ -2772,7 +1504,7 @@
       <c r="E85" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G85" s="7" t="n">
+      <c r="G85" s="9" t="n">
         <v>976</v>
       </c>
     </row>
@@ -2786,7 +1518,7 @@
       <c r="E86" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G86" s="7" t="n">
+      <c r="G86" s="9" t="n">
         <v>785</v>
       </c>
     </row>
@@ -2800,7 +1532,7 @@
       <c r="E87" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G87" s="7" t="n">
+      <c r="G87" s="9" t="n">
         <v>981</v>
       </c>
     </row>
@@ -2814,7 +1546,7 @@
       <c r="E88" s="8" t="n">
         <v>1051</v>
       </c>
-      <c r="G88" s="7" t="n">
+      <c r="G88" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2828,7 +1560,7 @@
       <c r="E89" s="8" t="n">
         <v>787</v>
       </c>
-      <c r="G89" s="7" t="n">
+      <c r="G89" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2842,7 +1574,7 @@
       <c r="E90" s="8" t="n">
         <v>1205</v>
       </c>
-      <c r="G90" s="7" t="n">
+      <c r="G90" s="9" t="n">
         <v>1050</v>
       </c>
     </row>
@@ -2856,7 +1588,7 @@
       <c r="E91" s="8" t="n">
         <v>685</v>
       </c>
-      <c r="G91" s="7" t="n">
+      <c r="G91" s="9" t="n">
         <v>985</v>
       </c>
     </row>
@@ -2870,7 +1602,7 @@
       <c r="E92" s="8" t="n">
         <v>1111</v>
       </c>
-      <c r="G92" s="7" t="n">
+      <c r="G92" s="9" t="n">
         <v>890</v>
       </c>
     </row>
@@ -2884,7 +1616,7 @@
       <c r="E93" s="8" t="n">
         <v>759</v>
       </c>
-      <c r="G93" s="7" t="n">
+      <c r="G93" s="9" t="n">
         <v>845</v>
       </c>
     </row>
@@ -2898,7 +1630,7 @@
       <c r="E94" s="8" t="n">
         <v>3205</v>
       </c>
-      <c r="G94" s="7" t="n">
+      <c r="G94" s="9" t="n">
         <v>975</v>
       </c>
     </row>
@@ -2912,7 +1644,7 @@
       <c r="E95" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="G95" s="7" t="n">
+      <c r="G95" s="9" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -2926,7 +1658,7 @@
       <c r="E96" s="8" t="n">
         <v>3207</v>
       </c>
-      <c r="G96" s="7" t="n">
+      <c r="G96" s="9" t="n">
         <v>963</v>
       </c>
     </row>
@@ -2940,7 +1672,7 @@
       <c r="E97" s="8" t="n">
         <v>3208</v>
       </c>
-      <c r="G97" s="7" t="n">
+      <c r="G97" s="9" t="n">
         <v>986</v>
       </c>
     </row>
@@ -2994,6 +1726,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>